--- a/cities/Dammam/Dammam.xlsx
+++ b/cities/Dammam/Dammam.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DAMMAM</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DAMMAM</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>dammam</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Dammam 31471</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Dammam 31471</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Dammam-31493</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
